--- a/directed_trips_regions_bimonthly.xlsx
+++ b/directed_trips_regions_bimonthly.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Dropbox\NMFS\fluke_mse\simulation_R_code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8256"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -132,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -155,27 +161,310 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB124"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R65" sqref="R65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -261,7 +550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -347,7 +636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -433,7 +722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -519,7 +808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -605,7 +894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -691,7 +980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -777,7 +1066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -863,7 +1152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -949,7 +1238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1207,7 +1496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1293,7 +1582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1551,7 +1840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1637,7 +1926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1723,7 +2012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +2098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1895,7 +2184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1981,7 +2270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2067,7 +2356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2153,7 +2442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +2528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2411,7 +2700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2497,7 +2786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2583,7 +2872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2669,7 +2958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2755,7 +3044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2841,7 +3130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2927,7 +3216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +3302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3099,7 +3388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -3185,7 +3474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3271,7 +3560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3357,7 +3646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3443,7 +3732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3615,7 +3904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3701,7 +3990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -3787,7 +4076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -3873,7 +4162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -3959,7 +4248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -4045,7 +4334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -4131,7 +4420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -4217,7 +4506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -4303,7 +4592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -4389,7 +4678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -4475,7 +4764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -4561,7 +4850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -4647,7 +4936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -4733,7 +5022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -4819,7 +5108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4905,7 +5194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -4958,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="R56" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="S56" s="1">
         <v>100</v>
@@ -4991,7 +5280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -5044,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="R57" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="S57" s="1">
         <v>100</v>
@@ -5077,7 +5366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -5130,7 +5419,7 @@
         <v>4</v>
       </c>
       <c r="R58" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="S58" s="1">
         <v>100</v>
@@ -5163,7 +5452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -5216,7 +5505,7 @@
         <v>4</v>
       </c>
       <c r="R59" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="S59" s="1">
         <v>100</v>
@@ -5249,7 +5538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -5302,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="S60" s="1">
         <v>100</v>
@@ -5335,7 +5624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -5388,7 +5677,7 @@
         <v>4</v>
       </c>
       <c r="R61" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="S61" s="1">
         <v>100</v>
@@ -5421,7 +5710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -5474,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="R62" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="S62" s="1">
         <v>100</v>
@@ -5507,7 +5796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -5560,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="R63" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="S63" s="1">
         <v>100</v>
@@ -5593,7 +5882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -5646,7 +5935,7 @@
         <v>4</v>
       </c>
       <c r="R64" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="S64" s="1">
         <v>100</v>
@@ -5679,7 +5968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -5765,7 +6054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -5851,7 +6140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -5937,7 +6226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -6023,7 +6312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -6109,7 +6398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -6195,7 +6484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -6281,7 +6570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -6367,7 +6656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -6453,7 +6742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -6539,7 +6828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -6625,7 +6914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -6711,7 +7000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -6797,7 +7086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -6883,7 +7172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -6969,7 +7258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -7055,7 +7344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -7141,7 +7430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -7227,7 +7516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -7313,7 +7602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -7399,7 +7688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -7485,7 +7774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -7571,7 +7860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -7657,7 +7946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:28">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -7743,7 +8032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -7829,7 +8118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -7915,7 +8204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -8001,7 +8290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -8087,7 +8376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -8173,7 +8462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -8259,7 +8548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -8345,7 +8634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -8431,7 +8720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -8517,7 +8806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -8603,7 +8892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:28">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -8689,7 +8978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -8775,7 +9064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -8861,7 +9150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -8947,7 +9236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:28">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -9033,7 +9322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -9119,7 +9408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -9205,7 +9494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -9291,7 +9580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -9377,7 +9666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:28">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -9463,7 +9752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -9549,7 +9838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -9635,7 +9924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -9721,7 +10010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -9807,7 +10096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:28">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -9893,7 +10182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:28">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -9979,7 +10268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:28">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -10065,7 +10354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:28">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -10151,7 +10440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:28">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -10237,7 +10526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:28">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -10323,7 +10612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:28">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -10409,7 +10698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:28">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -10495,7 +10784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:28">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -10581,7 +10870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:28">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -10667,7 +10956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:28">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -10753,7 +11042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:28">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -10840,5 +11129,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>